--- a/data/pca/factorExposure/factorExposure_2011-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +738,63 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>-0.007009014462459892</v>
+        <v>-0.01145266811643068</v>
       </c>
       <c r="C2">
-        <v>-0.001871129241585119</v>
+        <v>0.002315287055116886</v>
       </c>
       <c r="D2">
-        <v>0.05076570126316593</v>
+        <v>0.02687598594142524</v>
       </c>
       <c r="E2">
-        <v>-0.002147892339731781</v>
+        <v>-0.01789933114110567</v>
       </c>
       <c r="F2">
-        <v>0.01556767465474678</v>
+        <v>1.612515414899729e-05</v>
       </c>
       <c r="G2">
-        <v>0.01039165927176086</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.009193612042229652</v>
+      </c>
+      <c r="H2">
+        <v>-0.02008572356791569</v>
+      </c>
+      <c r="I2">
+        <v>-0.04965148904095515</v>
+      </c>
+      <c r="J2">
+        <v>0.03839567723755104</v>
+      </c>
+      <c r="K2">
+        <v>-0.04884968062689519</v>
+      </c>
+      <c r="L2">
+        <v>0.000481297442057113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +814,63 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>-0.1008563607064843</v>
+        <v>-0.1130201437584859</v>
       </c>
       <c r="C4">
-        <v>-0.03714133034624169</v>
+        <v>0.06366293940069681</v>
       </c>
       <c r="D4">
-        <v>0.04022007123821347</v>
+        <v>0.02469995358945474</v>
       </c>
       <c r="E4">
-        <v>-0.06658706048159817</v>
+        <v>-0.01968156000039048</v>
       </c>
       <c r="F4">
-        <v>0.03578587988208334</v>
+        <v>-0.1596238181579012</v>
       </c>
       <c r="G4">
-        <v>0.03209462897370823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.003538153809468034</v>
+      </c>
+      <c r="H4">
+        <v>-0.04343210174215379</v>
+      </c>
+      <c r="I4">
+        <v>0.0257935343859683</v>
+      </c>
+      <c r="J4">
+        <v>-0.01198038896538699</v>
+      </c>
+      <c r="K4">
+        <v>0.03143850669202892</v>
+      </c>
+      <c r="L4">
+        <v>0.04891834957508153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +890,443 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>-0.1289678308838192</v>
+        <v>-0.128460254947881</v>
       </c>
       <c r="C6">
-        <v>-0.03019003808342433</v>
+        <v>0.03016966456328886</v>
       </c>
       <c r="D6">
-        <v>0.03552081301512968</v>
+        <v>-0.009317315348988227</v>
       </c>
       <c r="E6">
-        <v>0.007187064679742993</v>
+        <v>-0.008498484861966056</v>
       </c>
       <c r="F6">
-        <v>-0.1515086643385758</v>
+        <v>0.009452867617787391</v>
       </c>
       <c r="G6">
-        <v>-0.122769144974893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.09202227387027859</v>
+      </c>
+      <c r="H6">
+        <v>-0.05431268988525609</v>
+      </c>
+      <c r="I6">
+        <v>0.2651369366305477</v>
+      </c>
+      <c r="J6">
+        <v>-0.3429972095173722</v>
+      </c>
+      <c r="K6">
+        <v>-0.06181452650029035</v>
+      </c>
+      <c r="L6">
+        <v>0.1798051090750998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>-0.0882701143991536</v>
+        <v>-0.08072157516628273</v>
       </c>
       <c r="C7">
-        <v>-0.04726955641867417</v>
+        <v>0.07029509028264849</v>
       </c>
       <c r="D7">
-        <v>0.04617845563170785</v>
+        <v>0.03255368544945375</v>
       </c>
       <c r="E7">
-        <v>-0.03365423405012456</v>
+        <v>-0.02170108375842747</v>
       </c>
       <c r="F7">
-        <v>-0.02159030532861041</v>
+        <v>-0.03811381143828241</v>
       </c>
       <c r="G7">
-        <v>0.0428444423803724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.0006746206874227303</v>
+      </c>
+      <c r="H7">
+        <v>-0.006908714139423206</v>
+      </c>
+      <c r="I7">
+        <v>0.01099961589818186</v>
+      </c>
+      <c r="J7">
+        <v>0.06032766891879509</v>
+      </c>
+      <c r="K7">
+        <v>0.09108962828129785</v>
+      </c>
+      <c r="L7">
+        <v>0.007223474055769472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>-0.04483345814000288</v>
+        <v>-0.04935795635270466</v>
       </c>
       <c r="C8">
-        <v>0.01558980844955995</v>
+        <v>0.0175337331660127</v>
       </c>
       <c r="D8">
-        <v>0.07477863362517764</v>
+        <v>0.003249553839503168</v>
       </c>
       <c r="E8">
-        <v>-0.0787821089908194</v>
+        <v>-0.01293982989447626</v>
       </c>
       <c r="F8">
-        <v>0.03379928186072906</v>
+        <v>-0.1399108008940481</v>
       </c>
       <c r="G8">
-        <v>0.1302212566550858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02381252899642067</v>
+      </c>
+      <c r="H8">
+        <v>-0.05277062284813949</v>
+      </c>
+      <c r="I8">
+        <v>0.0225905759853131</v>
+      </c>
+      <c r="J8">
+        <v>-0.01213128453765951</v>
+      </c>
+      <c r="K8">
+        <v>0.005260561576131537</v>
+      </c>
+      <c r="L8">
+        <v>0.0974148464975258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>-0.08867658060144415</v>
+        <v>-0.08561986656212056</v>
       </c>
       <c r="C9">
-        <v>-0.03792260195737797</v>
+        <v>0.05707566394433413</v>
       </c>
       <c r="D9">
-        <v>0.03818792870120243</v>
+        <v>0.02223265945902498</v>
       </c>
       <c r="E9">
-        <v>-0.04281077665867538</v>
+        <v>-0.004391541511105241</v>
       </c>
       <c r="F9">
-        <v>0.01689829242509899</v>
+        <v>-0.14000233595308</v>
       </c>
       <c r="G9">
-        <v>0.05756901109568732</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.007385949809115717</v>
+      </c>
+      <c r="H9">
+        <v>-0.01933357939700063</v>
+      </c>
+      <c r="I9">
+        <v>0.03288652314870844</v>
+      </c>
+      <c r="J9">
+        <v>0.003467516356170871</v>
+      </c>
+      <c r="K9">
+        <v>-0.002792341921379822</v>
+      </c>
+      <c r="L9">
+        <v>0.04096362947412639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>-0.04332313395432025</v>
+        <v>-0.1012362325682655</v>
       </c>
       <c r="C10">
-        <v>0.1537530128472754</v>
+        <v>-0.1658644019074524</v>
       </c>
       <c r="D10">
-        <v>0.08959923645923905</v>
+        <v>0.05479450453368254</v>
       </c>
       <c r="E10">
-        <v>-0.02621957354627904</v>
+        <v>-0.03226854550186541</v>
       </c>
       <c r="F10">
-        <v>-0.04213124513002894</v>
+        <v>0.01011659422242665</v>
       </c>
       <c r="G10">
-        <v>0.02827243799170614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.01488525945015477</v>
+      </c>
+      <c r="H10">
+        <v>0.04310649577969785</v>
+      </c>
+      <c r="I10">
+        <v>0.01386529668281973</v>
+      </c>
+      <c r="J10">
+        <v>-0.01191225928222011</v>
+      </c>
+      <c r="K10">
+        <v>0.0746394070958452</v>
+      </c>
+      <c r="L10">
+        <v>-0.02058129218547414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>-0.07344784668018922</v>
+        <v>-0.07711148317784702</v>
       </c>
       <c r="C11">
-        <v>-0.0628191632999713</v>
+        <v>0.07125790232926792</v>
       </c>
       <c r="D11">
-        <v>0.004447001818023095</v>
+        <v>0.009491781818537564</v>
       </c>
       <c r="E11">
-        <v>0.005596940694671387</v>
+        <v>0.02571435071398364</v>
       </c>
       <c r="F11">
-        <v>0.01938601554167007</v>
+        <v>-0.1353046107069357</v>
       </c>
       <c r="G11">
-        <v>0.1467421083399882</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.01129788807405272</v>
+      </c>
+      <c r="H11">
+        <v>0.03790076019952236</v>
+      </c>
+      <c r="I11">
+        <v>-0.02053979040723498</v>
+      </c>
+      <c r="J11">
+        <v>0.08276487164545321</v>
+      </c>
+      <c r="K11">
+        <v>-0.04438867167939178</v>
+      </c>
+      <c r="L11">
+        <v>0.001183449302453909</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>-0.06890893705008744</v>
+        <v>-0.07124242787392673</v>
       </c>
       <c r="C12">
-        <v>-0.03845149076193997</v>
+        <v>0.06353171769617905</v>
       </c>
       <c r="D12">
-        <v>-0.003181049087786089</v>
+        <v>0.0143496729229563</v>
       </c>
       <c r="E12">
-        <v>-0.03393889486197989</v>
+        <v>0.02449612371598887</v>
       </c>
       <c r="F12">
-        <v>0.002822591327422121</v>
+        <v>-0.1384000419465442</v>
       </c>
       <c r="G12">
-        <v>0.1430020237899447</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03242137360585194</v>
+      </c>
+      <c r="H12">
+        <v>0.01131322263562571</v>
+      </c>
+      <c r="I12">
+        <v>0.01609097079785328</v>
+      </c>
+      <c r="J12">
+        <v>0.09274321737869352</v>
+      </c>
+      <c r="K12">
+        <v>-0.05493624807954715</v>
+      </c>
+      <c r="L12">
+        <v>0.04273764490717001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>-0.06084827914837613</v>
+        <v>-0.04323241347429914</v>
       </c>
       <c r="C13">
-        <v>-0.0003535509269138825</v>
+        <v>0.02683689594802672</v>
       </c>
       <c r="D13">
-        <v>0.009409901346726229</v>
+        <v>0.007096132279407368</v>
       </c>
       <c r="E13">
-        <v>-0.03051124051384232</v>
+        <v>-0.01712670658006487</v>
       </c>
       <c r="F13">
-        <v>0.03706878524533126</v>
+        <v>-0.05148801402231745</v>
       </c>
       <c r="G13">
-        <v>0.05632164187989895</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.009644533851131277</v>
+      </c>
+      <c r="H13">
+        <v>-0.03314104414911812</v>
+      </c>
+      <c r="I13">
+        <v>0.03038783987980707</v>
+      </c>
+      <c r="J13">
+        <v>-0.0007046337779944302</v>
+      </c>
+      <c r="K13">
+        <v>0.03925353406710141</v>
+      </c>
+      <c r="L13">
+        <v>-0.02281672808766934</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>-0.05002401742921858</v>
+        <v>-0.0431513806277876</v>
       </c>
       <c r="C14">
-        <v>-0.001673681529243385</v>
+        <v>0.02242098788539787</v>
       </c>
       <c r="D14">
-        <v>0.02839398105001735</v>
+        <v>0.01111005021345273</v>
       </c>
       <c r="E14">
-        <v>-0.02149136513436139</v>
+        <v>0.01352436086260981</v>
       </c>
       <c r="F14">
-        <v>-0.0006337789241229281</v>
+        <v>-0.05999989937418649</v>
       </c>
       <c r="G14">
-        <v>0.05206155470025601</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.01327341114073636</v>
+      </c>
+      <c r="H14">
+        <v>-0.009232455372090708</v>
+      </c>
+      <c r="I14">
+        <v>-0.01091017512118616</v>
+      </c>
+      <c r="J14">
+        <v>-0.04657076458335551</v>
+      </c>
+      <c r="K14">
+        <v>0.06085163393705437</v>
+      </c>
+      <c r="L14">
+        <v>0.07477129292989348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>-0.03687688435676351</v>
+        <v>-0.02353911720794576</v>
       </c>
       <c r="C15">
-        <v>0.009540800089276954</v>
+        <v>0.01177858816040689</v>
       </c>
       <c r="D15">
-        <v>0.01272059319358988</v>
+        <v>-0.007474817259787167</v>
       </c>
       <c r="E15">
-        <v>-0.007939123926610902</v>
+        <v>-0.04477306101846752</v>
       </c>
       <c r="F15">
-        <v>0.01755932295864622</v>
+        <v>-0.01517535409083598</v>
       </c>
       <c r="G15">
-        <v>0.02760489964424209</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.03442547519044676</v>
+      </c>
+      <c r="H15">
+        <v>-0.003413402722457822</v>
+      </c>
+      <c r="I15">
+        <v>0.01455966257212151</v>
+      </c>
+      <c r="J15">
+        <v>-0.03579072373369879</v>
+      </c>
+      <c r="K15">
+        <v>0.06899320792450771</v>
+      </c>
+      <c r="L15">
+        <v>-0.006608357345851737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>-0.07740249089398898</v>
+        <v>-0.0812084955631461</v>
       </c>
       <c r="C16">
-        <v>-0.07242490439532041</v>
+        <v>0.07376092150117439</v>
       </c>
       <c r="D16">
-        <v>0.01647812792154428</v>
+        <v>0.005126520741018463</v>
       </c>
       <c r="E16">
-        <v>-0.03996438564657948</v>
+        <v>0.02104606341125398</v>
       </c>
       <c r="F16">
-        <v>0.04244927795981973</v>
+        <v>-0.1308793379069152</v>
       </c>
       <c r="G16">
-        <v>0.1175533575683979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02920340559499423</v>
+      </c>
+      <c r="H16">
+        <v>0.02171019667434541</v>
+      </c>
+      <c r="I16">
+        <v>-0.02163255677278875</v>
+      </c>
+      <c r="J16">
+        <v>0.09412639789871982</v>
+      </c>
+      <c r="K16">
+        <v>-0.03862554777818843</v>
+      </c>
+      <c r="L16">
+        <v>0.03071887074909215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1346,25 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1384,25 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1422,291 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>-0.04895795794877489</v>
+        <v>-0.04706417177673248</v>
       </c>
       <c r="C20">
-        <v>-0.01803114980408009</v>
+        <v>0.03780925554027034</v>
       </c>
       <c r="D20">
-        <v>0.01628429366222144</v>
+        <v>0.01641557013968249</v>
       </c>
       <c r="E20">
-        <v>-0.02289000834786878</v>
+        <v>-0.01888035250778545</v>
       </c>
       <c r="F20">
-        <v>0.007806940549079868</v>
+        <v>-0.06926850984339965</v>
       </c>
       <c r="G20">
-        <v>0.09851472399701389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.02247227851985635</v>
+      </c>
+      <c r="H20">
+        <v>-0.01402652891731306</v>
+      </c>
+      <c r="I20">
+        <v>0.03014524179110345</v>
+      </c>
+      <c r="J20">
+        <v>0.01226124834675462</v>
+      </c>
+      <c r="K20">
+        <v>0.05501995994490904</v>
+      </c>
+      <c r="L20">
+        <v>0.02774831813171761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>-0.02677800091807409</v>
+        <v>-0.02385789790520076</v>
       </c>
       <c r="C21">
-        <v>-0.04227935023982501</v>
+        <v>0.02140768626289349</v>
       </c>
       <c r="D21">
-        <v>-0.006563959575157481</v>
+        <v>0.005421526601777919</v>
       </c>
       <c r="E21">
-        <v>-0.01958270417159631</v>
+        <v>0.003887161926112809</v>
       </c>
       <c r="F21">
-        <v>-0.08548769152952707</v>
+        <v>-0.07326597060371262</v>
       </c>
       <c r="G21">
-        <v>-0.04466250321256293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03742510262542913</v>
+      </c>
+      <c r="H21">
+        <v>0.03433109837457826</v>
+      </c>
+      <c r="I21">
+        <v>0.09014874867637507</v>
+      </c>
+      <c r="J21">
+        <v>0.02092639646513254</v>
+      </c>
+      <c r="K21">
+        <v>0.1527778250293381</v>
+      </c>
+      <c r="L21">
+        <v>-0.0378831686828227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>-0.04088572290608424</v>
+        <v>-0.04721287273725402</v>
       </c>
       <c r="C22">
-        <v>-0.001335934929240516</v>
+        <v>0.008905064372893453</v>
       </c>
       <c r="D22">
-        <v>-0.02779308165830739</v>
+        <v>-0.1504478638390531</v>
       </c>
       <c r="E22">
-        <v>-0.564508041372506</v>
+        <v>-0.6410178899953533</v>
       </c>
       <c r="F22">
-        <v>0.100944365537685</v>
+        <v>0.05417057007173248</v>
       </c>
       <c r="G22">
-        <v>-0.3037232441629543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.1219634286708546</v>
+      </c>
+      <c r="H22">
+        <v>0.09029869365250218</v>
+      </c>
+      <c r="I22">
+        <v>0.02737358700407498</v>
+      </c>
+      <c r="J22">
+        <v>0.05335018135836747</v>
+      </c>
+      <c r="K22">
+        <v>-0.05811892844322052</v>
+      </c>
+      <c r="L22">
+        <v>-0.02350808724958126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>-0.04090894939347382</v>
+        <v>-0.04763084084739771</v>
       </c>
       <c r="C23">
-        <v>-0.001921794902127639</v>
+        <v>0.00952382093029811</v>
       </c>
       <c r="D23">
-        <v>-0.0265820733896358</v>
+        <v>-0.1509167170452809</v>
       </c>
       <c r="E23">
-        <v>-0.5641602729383562</v>
+        <v>-0.6427692518343705</v>
       </c>
       <c r="F23">
-        <v>0.1017123497392516</v>
+        <v>0.05176110838957489</v>
       </c>
       <c r="G23">
-        <v>-0.3055002378568206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.1229221073699919</v>
+      </c>
+      <c r="H23">
+        <v>0.08816039503242747</v>
+      </c>
+      <c r="I23">
+        <v>0.02743622172700987</v>
+      </c>
+      <c r="J23">
+        <v>0.05022878837451682</v>
+      </c>
+      <c r="K23">
+        <v>-0.0608732124801942</v>
+      </c>
+      <c r="L23">
+        <v>-0.02260655602587809</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>-0.08544298393896728</v>
+        <v>-0.08416856180696576</v>
       </c>
       <c r="C24">
-        <v>-0.04873973645341773</v>
+        <v>0.06626656811338043</v>
       </c>
       <c r="D24">
-        <v>0.0168958474402593</v>
+        <v>0.01155692304822629</v>
       </c>
       <c r="E24">
-        <v>-0.03666808203674943</v>
+        <v>0.01784113279893649</v>
       </c>
       <c r="F24">
-        <v>0.01259284243049104</v>
+        <v>-0.1313928928272386</v>
       </c>
       <c r="G24">
-        <v>0.1165883583739145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01372577901490107</v>
+      </c>
+      <c r="H24">
+        <v>0.0543816983429871</v>
+      </c>
+      <c r="I24">
+        <v>-0.02660129251442888</v>
+      </c>
+      <c r="J24">
+        <v>0.08253298423903163</v>
+      </c>
+      <c r="K24">
+        <v>-0.06044284551572385</v>
+      </c>
+      <c r="L24">
+        <v>0.01063554716207054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>-0.07501787988499825</v>
+        <v>-0.08334200160999136</v>
       </c>
       <c r="C25">
-        <v>-0.02188800117686951</v>
+        <v>0.05209567218992277</v>
       </c>
       <c r="D25">
-        <v>0.02265879794901713</v>
+        <v>0.02379415683486446</v>
       </c>
       <c r="E25">
-        <v>-0.02544287496158918</v>
+        <v>0.02978177316302353</v>
       </c>
       <c r="F25">
-        <v>0.004361048396726751</v>
+        <v>-0.1300079552333135</v>
       </c>
       <c r="G25">
-        <v>0.115656391198394</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.03478108148956473</v>
+      </c>
+      <c r="H25">
+        <v>0.02571890012936582</v>
+      </c>
+      <c r="I25">
+        <v>-0.01940045232964917</v>
+      </c>
+      <c r="J25">
+        <v>0.07560403301502168</v>
+      </c>
+      <c r="K25">
+        <v>-0.05038457900763174</v>
+      </c>
+      <c r="L25">
+        <v>0.04590884314709462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>-0.04910281326473452</v>
+        <v>-0.04236710933314462</v>
       </c>
       <c r="C26">
-        <v>-0.02900612643402373</v>
+        <v>0.01012005003157443</v>
       </c>
       <c r="D26">
-        <v>0.02930179598155748</v>
+        <v>-0.003058516544922335</v>
       </c>
       <c r="E26">
-        <v>-0.01518754068289315</v>
+        <v>-0.01193015563280455</v>
       </c>
       <c r="F26">
-        <v>0.026134571740431</v>
+        <v>-0.05361464492462344</v>
       </c>
       <c r="G26">
-        <v>0.0625835787202525</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01591068677047418</v>
+      </c>
+      <c r="H26">
+        <v>0.03433670605467909</v>
+      </c>
+      <c r="I26">
+        <v>0.0005615489579053314</v>
+      </c>
+      <c r="J26">
+        <v>-0.03517034413820973</v>
+      </c>
+      <c r="K26">
+        <v>0.06842012105581202</v>
+      </c>
+      <c r="L26">
+        <v>-0.008648580607191765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1726,367 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>-0.07030457138549458</v>
+        <v>-0.1242169762122827</v>
       </c>
       <c r="C28">
-        <v>0.2939197023248151</v>
+        <v>-0.3003243250868897</v>
       </c>
       <c r="D28">
-        <v>0.06918149714733732</v>
+        <v>0.001064075819807532</v>
       </c>
       <c r="E28">
-        <v>0.0339199359864656</v>
+        <v>0.01289534886390794</v>
       </c>
       <c r="F28">
-        <v>-0.04728854882126785</v>
+        <v>-0.01629422969197704</v>
       </c>
       <c r="G28">
-        <v>-0.03488009506738483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.008352566037709222</v>
+      </c>
+      <c r="H28">
+        <v>-0.007061284733058607</v>
+      </c>
+      <c r="I28">
+        <v>0.02700314985516865</v>
+      </c>
+      <c r="J28">
+        <v>0.0184578933971746</v>
+      </c>
+      <c r="K28">
+        <v>0.01302570905685402</v>
+      </c>
+      <c r="L28">
+        <v>-0.02293390875163458</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>-0.05359371313786483</v>
+        <v>-0.04219631909587597</v>
       </c>
       <c r="C29">
-        <v>-0.004564781237629174</v>
+        <v>0.02441798353047651</v>
       </c>
       <c r="D29">
-        <v>0.01877673805735319</v>
+        <v>0.02334107685406423</v>
       </c>
       <c r="E29">
-        <v>-0.04133955543621547</v>
+        <v>-0.005437800323379594</v>
       </c>
       <c r="F29">
-        <v>0.03021063268084469</v>
+        <v>-0.05905427409843636</v>
       </c>
       <c r="G29">
-        <v>0.02848487060873932</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03481146895979043</v>
+      </c>
+      <c r="H29">
+        <v>0.002919587892649143</v>
+      </c>
+      <c r="I29">
+        <v>0.004110591386195401</v>
+      </c>
+      <c r="J29">
+        <v>-0.03417282894677361</v>
+      </c>
+      <c r="K29">
+        <v>0.05944411647428604</v>
+      </c>
+      <c r="L29">
+        <v>0.05659237979169244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>-0.1201991338332223</v>
+        <v>-0.1067329068509713</v>
       </c>
       <c r="C30">
-        <v>0.01020581936623298</v>
+        <v>0.05815992059842644</v>
       </c>
       <c r="D30">
-        <v>0.07148211031509741</v>
+        <v>-0.02061761367132551</v>
       </c>
       <c r="E30">
-        <v>-0.1919781853082888</v>
+        <v>0.01354821487517833</v>
       </c>
       <c r="F30">
-        <v>-0.03269074709446051</v>
+        <v>-0.1958914125090132</v>
       </c>
       <c r="G30">
-        <v>0.1461482182393134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.09989106629893281</v>
+      </c>
+      <c r="H30">
+        <v>0.05871330310869696</v>
+      </c>
+      <c r="I30">
+        <v>0.2288117213050204</v>
+      </c>
+      <c r="J30">
+        <v>0.1562661462390872</v>
+      </c>
+      <c r="K30">
+        <v>-0.1647163371487782</v>
+      </c>
+      <c r="L30">
+        <v>0.05483449063396852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>-0.05566094342394849</v>
+        <v>-0.03954136991488313</v>
       </c>
       <c r="C31">
-        <v>-0.01740411112571561</v>
+        <v>0.03963943925606292</v>
       </c>
       <c r="D31">
-        <v>-0.006433742234418476</v>
+        <v>0.002229172911915548</v>
       </c>
       <c r="E31">
-        <v>-0.01380422607332071</v>
+        <v>-0.004355542124896463</v>
       </c>
       <c r="F31">
-        <v>0.02614995716863273</v>
+        <v>-0.02578047077299529</v>
       </c>
       <c r="G31">
-        <v>0.01299190739621816</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01146116381048224</v>
+      </c>
+      <c r="H31">
+        <v>-0.006422722307081389</v>
+      </c>
+      <c r="I31">
+        <v>-0.03140002148394628</v>
+      </c>
+      <c r="J31">
+        <v>-0.02852085620173164</v>
+      </c>
+      <c r="K31">
+        <v>0.001534467641739619</v>
+      </c>
+      <c r="L31">
+        <v>0.03469397206520942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>-0.03351183689271241</v>
+        <v>-0.0474593427778309</v>
       </c>
       <c r="C32">
-        <v>0.02572514937861066</v>
+        <v>0.0007492433265353116</v>
       </c>
       <c r="D32">
-        <v>0.002358848818096703</v>
+        <v>-0.02600619363814756</v>
       </c>
       <c r="E32">
-        <v>-0.08733071032950276</v>
+        <v>0.02321669546520293</v>
       </c>
       <c r="F32">
-        <v>0.07098701845640507</v>
+        <v>-0.07690946034250697</v>
       </c>
       <c r="G32">
-        <v>0.06279010485194766</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.02773691442172839</v>
+      </c>
+      <c r="H32">
+        <v>0.006205859256741634</v>
+      </c>
+      <c r="I32">
+        <v>-0.006024394796894602</v>
+      </c>
+      <c r="J32">
+        <v>-0.01069884605513308</v>
+      </c>
+      <c r="K32">
+        <v>0.02483852080863265</v>
+      </c>
+      <c r="L32">
+        <v>0.006226093431735557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>-0.109908116128923</v>
+        <v>-0.09943421183596038</v>
       </c>
       <c r="C33">
-        <v>-0.01935105001520609</v>
+        <v>0.05566440233214739</v>
       </c>
       <c r="D33">
-        <v>-0.0113570320464816</v>
+        <v>-0.001917170562526461</v>
       </c>
       <c r="E33">
-        <v>-0.002362083303398268</v>
+        <v>0.01895504738214264</v>
       </c>
       <c r="F33">
-        <v>0.04981056429599546</v>
+        <v>-0.07298902214051628</v>
       </c>
       <c r="G33">
-        <v>0.03858743252229878</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.00833914456339686</v>
+      </c>
+      <c r="H33">
+        <v>0.01142061488277364</v>
+      </c>
+      <c r="I33">
+        <v>-0.01080318926706978</v>
+      </c>
+      <c r="J33">
+        <v>-0.004694266388574079</v>
+      </c>
+      <c r="K33">
+        <v>-0.009677717351565529</v>
+      </c>
+      <c r="L33">
+        <v>0.03773269301786808</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>-0.06411729964295709</v>
+        <v>-0.06772540393404489</v>
       </c>
       <c r="C34">
-        <v>-0.05084714760093696</v>
+        <v>0.05444309858567326</v>
       </c>
       <c r="D34">
-        <v>0.004647596366063539</v>
+        <v>0.01042802644368407</v>
       </c>
       <c r="E34">
-        <v>-0.01990988943951446</v>
+        <v>0.02249119566869063</v>
       </c>
       <c r="F34">
-        <v>0.01602245737012749</v>
+        <v>-0.1162648185582472</v>
       </c>
       <c r="G34">
-        <v>0.09172765057514431</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02102902113464929</v>
+      </c>
+      <c r="H34">
+        <v>0.01612346872439484</v>
+      </c>
+      <c r="I34">
+        <v>-0.01982538236587416</v>
+      </c>
+      <c r="J34">
+        <v>0.07435525398755385</v>
+      </c>
+      <c r="K34">
+        <v>-0.00546674742569063</v>
+      </c>
+      <c r="L34">
+        <v>0.04183485847381101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>-0.04296015515918104</v>
+        <v>-0.02342132388753872</v>
       </c>
       <c r="C35">
-        <v>-0.00758294697463435</v>
+        <v>0.02060438298627477</v>
       </c>
       <c r="D35">
-        <v>-0.01377593992856268</v>
+        <v>0.004782309936919518</v>
       </c>
       <c r="E35">
-        <v>-0.01329086995076486</v>
+        <v>0.006496891909741143</v>
       </c>
       <c r="F35">
-        <v>-0.02872456175782534</v>
+        <v>-0.03128087359797494</v>
       </c>
       <c r="G35">
-        <v>0.05439299427326298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.03119232930308122</v>
+      </c>
+      <c r="H35">
+        <v>-0.002998395810784836</v>
+      </c>
+      <c r="I35">
+        <v>0.02460996813877782</v>
+      </c>
+      <c r="J35">
+        <v>0.04577052731141878</v>
+      </c>
+      <c r="K35">
+        <v>0.04707425176424226</v>
+      </c>
+      <c r="L35">
+        <v>0.03277917562084554</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>-0.03560759778980029</v>
+        <v>-0.02825014687423285</v>
       </c>
       <c r="C36">
-        <v>-0.001710523645505883</v>
+        <v>0.01375209749914593</v>
       </c>
       <c r="D36">
-        <v>0.02342094070278192</v>
+        <v>0.002939331372383327</v>
       </c>
       <c r="E36">
-        <v>-0.03255519856003924</v>
+        <v>-0.00660401517949821</v>
       </c>
       <c r="F36">
-        <v>0.006212087328096886</v>
+        <v>-0.07336098020747985</v>
       </c>
       <c r="G36">
-        <v>0.06012577072159474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01616941809750724</v>
+      </c>
+      <c r="H36">
+        <v>0.01286338574843334</v>
+      </c>
+      <c r="I36">
+        <v>0.02022755768820279</v>
+      </c>
+      <c r="J36">
+        <v>-0.02650040163267528</v>
+      </c>
+      <c r="K36">
+        <v>0.02005831316081387</v>
+      </c>
+      <c r="L36">
+        <v>0.01546739748256913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +2106,177 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>-0.05070196132347062</v>
+        <v>-0.02394780252897595</v>
       </c>
       <c r="C38">
-        <v>-0.01926866751265945</v>
+        <v>0.03040911249467036</v>
       </c>
       <c r="D38">
-        <v>-0.001282366219806578</v>
+        <v>0.006129515593598383</v>
       </c>
       <c r="E38">
-        <v>-0.01078984270360317</v>
+        <v>-0.02118397046178138</v>
       </c>
       <c r="F38">
-        <v>-0.001421704367950676</v>
+        <v>0.04896242273710084</v>
       </c>
       <c r="G38">
-        <v>0.04187698703646239</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01545692853153044</v>
+      </c>
+      <c r="H38">
+        <v>0.01443335562718758</v>
+      </c>
+      <c r="I38">
+        <v>0.03171763164479171</v>
+      </c>
+      <c r="J38">
+        <v>-0.005507103536525276</v>
+      </c>
+      <c r="K38">
+        <v>0.00812387968457689</v>
+      </c>
+      <c r="L38">
+        <v>-0.08463242151303808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>-0.1063627510034132</v>
+        <v>-0.1140484055535296</v>
       </c>
       <c r="C39">
-        <v>-0.0427396717990414</v>
+        <v>0.08623984638766599</v>
       </c>
       <c r="D39">
-        <v>0.003274518847079491</v>
+        <v>0.02218000944665137</v>
       </c>
       <c r="E39">
-        <v>-0.06829831591466523</v>
+        <v>0.09711933893740499</v>
       </c>
       <c r="F39">
-        <v>0.01487149645612089</v>
+        <v>-0.1519077514466286</v>
       </c>
       <c r="G39">
-        <v>0.1634010013423509</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1271707086741379</v>
+      </c>
+      <c r="H39">
+        <v>0.01165502258457207</v>
+      </c>
+      <c r="I39">
+        <v>0.01470279847449214</v>
+      </c>
+      <c r="J39">
+        <v>0.1881370789977727</v>
+      </c>
+      <c r="K39">
+        <v>-0.1075355796424107</v>
+      </c>
+      <c r="L39">
+        <v>0.02333698694864764</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>-0.05170908789679197</v>
+        <v>-0.03110844027558031</v>
       </c>
       <c r="C40">
-        <v>-0.02286848357802622</v>
+        <v>0.05860474886376611</v>
       </c>
       <c r="D40">
-        <v>-0.02258933822140434</v>
+        <v>0.002233719148491847</v>
       </c>
       <c r="E40">
-        <v>-0.09626726331319527</v>
+        <v>-0.03959149865133927</v>
       </c>
       <c r="F40">
-        <v>0.005845378151298312</v>
+        <v>-0.1118724669687555</v>
       </c>
       <c r="G40">
-        <v>0.2170101327126338</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02989718840044342</v>
+      </c>
+      <c r="H40">
+        <v>0.08735060046105982</v>
+      </c>
+      <c r="I40">
+        <v>0.05094238062258226</v>
+      </c>
+      <c r="J40">
+        <v>-0.002816877588492229</v>
+      </c>
+      <c r="K40">
+        <v>0.02218028358255811</v>
+      </c>
+      <c r="L40">
+        <v>-0.1134993715807059</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>-0.04841180415252973</v>
+        <v>-0.03537127784525012</v>
       </c>
       <c r="C41">
-        <v>-0.03260833417131946</v>
+        <v>0.02884936068190544</v>
       </c>
       <c r="D41">
-        <v>0.00571618242096234</v>
+        <v>0.01617188740165169</v>
       </c>
       <c r="E41">
-        <v>0.004622596623847813</v>
+        <v>0.01309857509183431</v>
       </c>
       <c r="F41">
-        <v>0.02410285075578164</v>
+        <v>-0.01844372762432954</v>
       </c>
       <c r="G41">
-        <v>0.08407358637864101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01673118863392768</v>
+      </c>
+      <c r="H41">
+        <v>-0.004382619559836917</v>
+      </c>
+      <c r="I41">
+        <v>0.002906962269468474</v>
+      </c>
+      <c r="J41">
+        <v>0.01134559549555009</v>
+      </c>
+      <c r="K41">
+        <v>0.009782798632586517</v>
+      </c>
+      <c r="L41">
+        <v>-0.001154426328745952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2296,101 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>-0.07414275379699607</v>
+        <v>-0.05032476796441492</v>
       </c>
       <c r="C43">
-        <v>-0.03073616908851664</v>
+        <v>0.03008701811852275</v>
       </c>
       <c r="D43">
-        <v>0.0243900742740715</v>
+        <v>0.007022425369112771</v>
       </c>
       <c r="E43">
-        <v>-0.03043372175749708</v>
+        <v>-0.01494256559612794</v>
       </c>
       <c r="F43">
-        <v>0.01535789942285276</v>
+        <v>-0.01100124185297852</v>
       </c>
       <c r="G43">
-        <v>0.03225761594330323</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.04133852368954691</v>
+      </c>
+      <c r="H43">
+        <v>-0.01324072882117036</v>
+      </c>
+      <c r="I43">
+        <v>0.01501609622374844</v>
+      </c>
+      <c r="J43">
+        <v>0.01132803232234706</v>
+      </c>
+      <c r="K43">
+        <v>-0.02598133493572499</v>
+      </c>
+      <c r="L43">
+        <v>0.01538534188277605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>-0.06454344233724742</v>
+        <v>-0.112659817206562</v>
       </c>
       <c r="C44">
-        <v>-0.02988825739260588</v>
+        <v>0.09378588122807575</v>
       </c>
       <c r="D44">
-        <v>0.09801838076252732</v>
+        <v>0.04816228712238022</v>
       </c>
       <c r="E44">
-        <v>-0.07734494674709005</v>
+        <v>-0.09926095393595895</v>
       </c>
       <c r="F44">
-        <v>0.03629974812628642</v>
+        <v>-0.2131384456912761</v>
       </c>
       <c r="G44">
-        <v>0.1485917893296734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03485791970418176</v>
+      </c>
+      <c r="H44">
+        <v>0.08787070347996254</v>
+      </c>
+      <c r="I44">
+        <v>0.04206250651118396</v>
+      </c>
+      <c r="J44">
+        <v>-0.03655993217530765</v>
+      </c>
+      <c r="K44">
+        <v>0.2385692122987919</v>
+      </c>
+      <c r="L44">
+        <v>-0.05655489696139663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2410,443 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>-0.04453265442732046</v>
+        <v>-0.03451899988952419</v>
       </c>
       <c r="C46">
-        <v>-0.04211882030571588</v>
+        <v>0.02556256304388802</v>
       </c>
       <c r="D46">
-        <v>0.02014908277547441</v>
+        <v>0.0212898596637695</v>
       </c>
       <c r="E46">
-        <v>-0.05484353650620238</v>
+        <v>-0.03771680670785176</v>
       </c>
       <c r="F46">
-        <v>0.01118641662324628</v>
+        <v>-0.03509069338701254</v>
       </c>
       <c r="G46">
-        <v>0.04955801028479265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02299865598005366</v>
+      </c>
+      <c r="H46">
+        <v>0.0315198460748353</v>
+      </c>
+      <c r="I46">
+        <v>-0.002585364900257433</v>
+      </c>
+      <c r="J46">
+        <v>-0.006331081842299521</v>
+      </c>
+      <c r="K46">
+        <v>0.1055454340606999</v>
+      </c>
+      <c r="L46">
+        <v>0.08386047612309769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>-0.04823656743692083</v>
+        <v>-0.04236490140188556</v>
       </c>
       <c r="C47">
-        <v>-0.005536299821642748</v>
+        <v>0.02425653327231982</v>
       </c>
       <c r="D47">
-        <v>0.008342619921119532</v>
+        <v>0.00196827502919837</v>
       </c>
       <c r="E47">
-        <v>-0.06575318539673349</v>
+        <v>-0.01901511210419075</v>
       </c>
       <c r="F47">
-        <v>-0.006563395433531142</v>
+        <v>-0.03559775018864622</v>
       </c>
       <c r="G47">
-        <v>0.002783898764027974</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.002739749694375459</v>
+      </c>
+      <c r="H47">
+        <v>-0.005164080106097732</v>
+      </c>
+      <c r="I47">
+        <v>0.01960945508309261</v>
+      </c>
+      <c r="J47">
+        <v>-0.02544972894953825</v>
+      </c>
+      <c r="K47">
+        <v>0.04039533702115947</v>
+      </c>
+      <c r="L47">
+        <v>0.02282840151999749</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>-0.04183673443175949</v>
+        <v>-0.04307702570846018</v>
       </c>
       <c r="C48">
-        <v>0.003022474015711636</v>
+        <v>0.01329853700644526</v>
       </c>
       <c r="D48">
-        <v>-0.002780023714556592</v>
+        <v>0.00637842230306623</v>
       </c>
       <c r="E48">
-        <v>-0.03537216497461298</v>
+        <v>-0.007955550175640147</v>
       </c>
       <c r="F48">
-        <v>0.003547113414030566</v>
+        <v>-0.0663533034358008</v>
       </c>
       <c r="G48">
-        <v>0.04351393647946575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005723758659307931</v>
+      </c>
+      <c r="H48">
+        <v>0.02488572154553842</v>
+      </c>
+      <c r="I48">
+        <v>0.01668518883300373</v>
+      </c>
+      <c r="J48">
+        <v>0.0103645722587391</v>
+      </c>
+      <c r="K48">
+        <v>0.02886361683690091</v>
+      </c>
+      <c r="L48">
+        <v>0.05621965675463247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>-0.2369020568233242</v>
+        <v>-0.2216326595835716</v>
       </c>
       <c r="C49">
-        <v>-0.1005424800913102</v>
+        <v>0.04662864140967016</v>
       </c>
       <c r="D49">
-        <v>0.04668259654319496</v>
+        <v>0.07953810967547227</v>
       </c>
       <c r="E49">
-        <v>0.08172885764520714</v>
+        <v>0.01695748825105548</v>
       </c>
       <c r="F49">
-        <v>-0.1687927405712956</v>
+        <v>0.2290191016634743</v>
       </c>
       <c r="G49">
-        <v>-0.08087498005743127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.187474092947301</v>
+      </c>
+      <c r="H49">
+        <v>0.1813424396174948</v>
+      </c>
+      <c r="I49">
+        <v>0.03206899597193428</v>
+      </c>
+      <c r="J49">
+        <v>0.122095626950768</v>
+      </c>
+      <c r="K49">
+        <v>-0.2102754354991063</v>
+      </c>
+      <c r="L49">
+        <v>-0.03795867810238582</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>-0.05440943356340149</v>
+        <v>-0.044178298287403</v>
       </c>
       <c r="C50">
-        <v>-0.01611626731758169</v>
+        <v>0.02855125348426295</v>
       </c>
       <c r="D50">
-        <v>-0.007303542781938246</v>
+        <v>0.0006785558226694876</v>
       </c>
       <c r="E50">
-        <v>-0.02952422104893877</v>
+        <v>0.002333579887173033</v>
       </c>
       <c r="F50">
-        <v>0.04580706381689803</v>
+        <v>-0.04929093230019801</v>
       </c>
       <c r="G50">
-        <v>-0.001385808936278026</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.02195043476111809</v>
+      </c>
+      <c r="H50">
+        <v>0.01027482121313636</v>
+      </c>
+      <c r="I50">
+        <v>-0.01760968635360682</v>
+      </c>
+      <c r="J50">
+        <v>-0.03915336559110254</v>
+      </c>
+      <c r="K50">
+        <v>-0.002935489576815591</v>
+      </c>
+      <c r="L50">
+        <v>0.0345568295089734</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>-0.0355860622688153</v>
+        <v>-0.02272527485872106</v>
       </c>
       <c r="C51">
-        <v>-0.01657305465848374</v>
+        <v>-0.0008769400983918254</v>
       </c>
       <c r="D51">
-        <v>0.0127242305210409</v>
+        <v>0.0156299567119516</v>
       </c>
       <c r="E51">
-        <v>0.006116772647393725</v>
+        <v>-0.005700417190550471</v>
       </c>
       <c r="F51">
-        <v>-0.001542081725259471</v>
+        <v>0.02421811823886332</v>
       </c>
       <c r="G51">
-        <v>0.008661927883658186</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.01464491332117693</v>
+      </c>
+      <c r="H51">
+        <v>-0.01179830138801424</v>
+      </c>
+      <c r="I51">
+        <v>0.004361475547988145</v>
+      </c>
+      <c r="J51">
+        <v>0.02932608300408583</v>
+      </c>
+      <c r="K51">
+        <v>-0.05232313881200691</v>
+      </c>
+      <c r="L51">
+        <v>0.005034959342391719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>-0.06176225962587094</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.03547931183034429</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.005100319408586308</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.01255051106965082</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.01563434170945567</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.1040992460701639</v>
+      </c>
+      <c r="H52">
+        <v>-0.0008233068976986853</v>
+      </c>
+      <c r="I52">
+        <v>-0.0685120225425811</v>
+      </c>
+      <c r="J52">
+        <v>-0.02392928153429891</v>
+      </c>
+      <c r="K52">
+        <v>0.02647358543290648</v>
+      </c>
+      <c r="L52">
+        <v>0.01479838494065902</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>-0.1613204352874369</v>
+        <v>-0.16132290598079</v>
       </c>
       <c r="C53">
-        <v>-0.00645886294846952</v>
+        <v>0.03663447665600032</v>
       </c>
       <c r="D53">
-        <v>0.006056394700320139</v>
+        <v>0.02305405505345149</v>
       </c>
       <c r="E53">
-        <v>0.05769721283784613</v>
+        <v>-0.0001331445748874032</v>
       </c>
       <c r="F53">
-        <v>0.236965464760212</v>
+        <v>0.0850839022540843</v>
       </c>
       <c r="G53">
-        <v>-0.05850814522973293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.1560184278548468</v>
+      </c>
+      <c r="H53">
+        <v>-0.04716642141309833</v>
+      </c>
+      <c r="I53">
+        <v>-0.1986134217757516</v>
+      </c>
+      <c r="J53">
+        <v>-0.1442251752870348</v>
+      </c>
+      <c r="K53">
+        <v>-0.02863743384388656</v>
+      </c>
+      <c r="L53">
+        <v>-0.02044799018092429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>-0.05205086953288427</v>
+        <v>-0.05646071553797267</v>
       </c>
       <c r="C54">
-        <v>-0.005472702288227493</v>
+        <v>0.03863135479115289</v>
       </c>
       <c r="D54">
-        <v>0.02356792501499296</v>
+        <v>0.0100126277375182</v>
       </c>
       <c r="E54">
-        <v>-0.04890341268756849</v>
+        <v>-0.02170425937774475</v>
       </c>
       <c r="F54">
-        <v>0.02189557839958986</v>
+        <v>-0.1263646591781065</v>
       </c>
       <c r="G54">
-        <v>0.07870325831099476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.005255834744607526</v>
+      </c>
+      <c r="H54">
+        <v>-0.05440999824542093</v>
+      </c>
+      <c r="I54">
+        <v>0.04003518824532536</v>
+      </c>
+      <c r="J54">
+        <v>-0.04457288580153834</v>
+      </c>
+      <c r="K54">
+        <v>0.1115480336515764</v>
+      </c>
+      <c r="L54">
+        <v>0.05498625796069426</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>-0.09547560444416063</v>
+        <v>-0.0918706915621099</v>
       </c>
       <c r="C55">
-        <v>-0.01343102286643161</v>
+        <v>0.03755411501274551</v>
       </c>
       <c r="D55">
-        <v>0.01582070877079991</v>
+        <v>0.02133202216181089</v>
       </c>
       <c r="E55">
-        <v>0.002944194140664737</v>
+        <v>0.01487988118301177</v>
       </c>
       <c r="F55">
-        <v>0.1809227654201473</v>
+        <v>0.008729620610260915</v>
       </c>
       <c r="G55">
-        <v>-0.01687666486838975</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.09396028592282508</v>
+      </c>
+      <c r="H55">
+        <v>-0.05958418382604183</v>
+      </c>
+      <c r="I55">
+        <v>-0.1331840478255643</v>
+      </c>
+      <c r="J55">
+        <v>-0.06756086792038624</v>
+      </c>
+      <c r="K55">
+        <v>0.007730043482570883</v>
+      </c>
+      <c r="L55">
+        <v>0.01507310791866241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>-0.1613809557950819</v>
+        <v>-0.1584273921041728</v>
       </c>
       <c r="C56">
-        <v>-0.002573110948858602</v>
+        <v>0.05497957993011286</v>
       </c>
       <c r="D56">
-        <v>0.001512578918147899</v>
+        <v>0.04535959026230567</v>
       </c>
       <c r="E56">
-        <v>0.05831215756965172</v>
+        <v>0.01479011189494728</v>
       </c>
       <c r="F56">
-        <v>0.2356044819149224</v>
+        <v>0.05084950374014809</v>
       </c>
       <c r="G56">
-        <v>-0.07425611004849877</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1400407904227562</v>
+      </c>
+      <c r="H56">
+        <v>-0.03058746478847746</v>
+      </c>
+      <c r="I56">
+        <v>-0.1904445579154714</v>
+      </c>
+      <c r="J56">
+        <v>-0.1243626003819828</v>
+      </c>
+      <c r="K56">
+        <v>-0.01492341312601029</v>
+      </c>
+      <c r="L56">
+        <v>-0.04791204146417073</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2866,1697 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>-0.03465758623711541</v>
+        <v>-0.05049363905324116</v>
       </c>
       <c r="C58">
-        <v>-0.05253406356035569</v>
+        <v>0.04345065225711612</v>
       </c>
       <c r="D58">
-        <v>-0.0335926342002079</v>
+        <v>-0.02257355833291106</v>
       </c>
       <c r="E58">
-        <v>-0.2877108266305098</v>
+        <v>-0.08327543178344055</v>
       </c>
       <c r="F58">
-        <v>-0.4608064767991678</v>
+        <v>-0.01639456620649688</v>
       </c>
       <c r="G58">
-        <v>0.136347248762316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.05711925791568401</v>
+      </c>
+      <c r="H58">
+        <v>0.04019189427597962</v>
+      </c>
+      <c r="I58">
+        <v>0.1013441779306435</v>
+      </c>
+      <c r="J58">
+        <v>0.2014570615881275</v>
+      </c>
+      <c r="K58">
+        <v>0.06777290609041814</v>
+      </c>
+      <c r="L58">
+        <v>0.4580135543529156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>-0.1663419649236352</v>
+        <v>-0.1985827205440689</v>
       </c>
       <c r="C59">
-        <v>0.3859958622448237</v>
+        <v>-0.300546396447051</v>
       </c>
       <c r="D59">
-        <v>0.09246396909838918</v>
+        <v>0.02734050783407315</v>
       </c>
       <c r="E59">
-        <v>0.07293761474508953</v>
+        <v>0.0442910084091676</v>
       </c>
       <c r="F59">
-        <v>0.04576909008340965</v>
+        <v>-0.0257343071581756</v>
       </c>
       <c r="G59">
-        <v>0.01441885873568275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0271099817480865</v>
+      </c>
+      <c r="H59">
+        <v>-0.08476478285040925</v>
+      </c>
+      <c r="I59">
+        <v>-0.08770155243849324</v>
+      </c>
+      <c r="J59">
+        <v>-0.006918462506196221</v>
+      </c>
+      <c r="K59">
+        <v>-0.04629224713039406</v>
+      </c>
+      <c r="L59">
+        <v>-0.1072418995475408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>-0.2659467069041589</v>
+        <v>-0.2465132399464803</v>
       </c>
       <c r="C60">
-        <v>-0.07269329248081528</v>
+        <v>0.09720323809240702</v>
       </c>
       <c r="D60">
-        <v>0.08024115285750971</v>
+        <v>0.1034090522719283</v>
       </c>
       <c r="E60">
-        <v>0.06853512422020716</v>
+        <v>0.02100899154369501</v>
       </c>
       <c r="F60">
-        <v>-0.08447905808796544</v>
+        <v>0.1425910076744133</v>
       </c>
       <c r="G60">
-        <v>-0.2058112895763478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.0745856455208752</v>
+      </c>
+      <c r="H60">
+        <v>0.1002952806372275</v>
+      </c>
+      <c r="I60">
+        <v>0.05584463533401832</v>
+      </c>
+      <c r="J60">
+        <v>-0.09954532183218159</v>
+      </c>
+      <c r="K60">
+        <v>-0.2091367962295941</v>
+      </c>
+      <c r="L60">
+        <v>0.001404496382029931</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>-0.09149779412196411</v>
+        <v>-0.1041036714511661</v>
       </c>
       <c r="C61">
-        <v>-0.01827308643683037</v>
+        <v>0.05021178451777216</v>
       </c>
       <c r="D61">
-        <v>0.003609954797801958</v>
+        <v>0.03281363693176687</v>
       </c>
       <c r="E61">
-        <v>-0.02350282288448625</v>
+        <v>0.06001390871568715</v>
       </c>
       <c r="F61">
-        <v>0.0242573088371678</v>
+        <v>-0.1322384176229579</v>
       </c>
       <c r="G61">
-        <v>0.06325486855166826</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1082282773231042</v>
+      </c>
+      <c r="H61">
+        <v>-0.01184012969221155</v>
+      </c>
+      <c r="I61">
+        <v>-0.025404965426947</v>
+      </c>
+      <c r="J61">
+        <v>0.1024738542890681</v>
+      </c>
+      <c r="K61">
+        <v>-0.02762024859531402</v>
+      </c>
+      <c r="L61">
+        <v>0.02298955591823107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>-0.1454906492042421</v>
+        <v>-0.1512312879608335</v>
       </c>
       <c r="C62">
-        <v>-0.02742860159340335</v>
+        <v>0.05370488965669987</v>
       </c>
       <c r="D62">
-        <v>-0.03379331753285873</v>
+        <v>0.02085452234054348</v>
       </c>
       <c r="E62">
-        <v>0.1238266378121359</v>
+        <v>0.02222066214139429</v>
       </c>
       <c r="F62">
-        <v>0.2382283302527338</v>
+        <v>0.06566245178027635</v>
       </c>
       <c r="G62">
-        <v>-0.02319228839233043</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.1133284094441714</v>
+      </c>
+      <c r="H62">
+        <v>-0.01121265448042938</v>
+      </c>
+      <c r="I62">
+        <v>-0.1903551166634381</v>
+      </c>
+      <c r="J62">
+        <v>-0.1554425288935185</v>
+      </c>
+      <c r="K62">
+        <v>0.04136613928636357</v>
+      </c>
+      <c r="L62">
+        <v>-0.02928380575038458</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>-0.04021522909082198</v>
+        <v>-0.04139981288941889</v>
       </c>
       <c r="C63">
-        <v>-0.01234897614288467</v>
+        <v>0.0171601591455591</v>
       </c>
       <c r="D63">
-        <v>-0.005897804327991853</v>
+        <v>-0.01809350569465584</v>
       </c>
       <c r="E63">
-        <v>-0.005441580951660466</v>
+        <v>0.007525301521436668</v>
       </c>
       <c r="F63">
-        <v>0.009978512289988242</v>
+        <v>-0.05789710787231633</v>
       </c>
       <c r="G63">
-        <v>0.03092347857449095</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.00179775303724493</v>
+      </c>
+      <c r="H63">
+        <v>-0.002172673846227874</v>
+      </c>
+      <c r="I63">
+        <v>0.01150885869862506</v>
+      </c>
+      <c r="J63">
+        <v>0.0006462300151494771</v>
+      </c>
+      <c r="K63">
+        <v>-0.01004797495063932</v>
+      </c>
+      <c r="L63">
+        <v>0.04990936705048477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>-0.1037514463240856</v>
+        <v>-0.09788659033110844</v>
       </c>
       <c r="C64">
-        <v>-0.01143171112838376</v>
+        <v>0.04000685333586458</v>
       </c>
       <c r="D64">
-        <v>0.04493347038083319</v>
+        <v>0.0470233851396326</v>
       </c>
       <c r="E64">
-        <v>-0.03779603947629954</v>
+        <v>-0.01991983163123935</v>
       </c>
       <c r="F64">
-        <v>-0.02281838129581367</v>
+        <v>-0.08291787820667958</v>
       </c>
       <c r="G64">
-        <v>0.0460032018531028</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.01901720466240799</v>
+      </c>
+      <c r="H64">
+        <v>0.02653090389904404</v>
+      </c>
+      <c r="I64">
+        <v>0.1004911538493015</v>
+      </c>
+      <c r="J64">
+        <v>0.03176005577750904</v>
+      </c>
+      <c r="K64">
+        <v>-0.06659941240259896</v>
+      </c>
+      <c r="L64">
+        <v>-0.02760736002746075</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>-0.1220205836198639</v>
+        <v>-0.1174038454154065</v>
       </c>
       <c r="C65">
-        <v>-0.03483747767542311</v>
+        <v>0.0261452440132604</v>
       </c>
       <c r="D65">
-        <v>0.02190832987546426</v>
+        <v>-0.02304874420485588</v>
       </c>
       <c r="E65">
-        <v>-0.05499631108984396</v>
+        <v>0.01146898489509515</v>
       </c>
       <c r="F65">
-        <v>-0.2076074732105994</v>
+        <v>0.0314145671821866</v>
       </c>
       <c r="G65">
-        <v>-0.1882377345085884</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.09520673701532877</v>
+      </c>
+      <c r="H65">
+        <v>0.01270239134654518</v>
+      </c>
+      <c r="I65">
+        <v>0.3555696125287695</v>
+      </c>
+      <c r="J65">
+        <v>-0.5033873627518881</v>
+      </c>
+      <c r="K65">
+        <v>-0.09194803318089401</v>
+      </c>
+      <c r="L65">
+        <v>0.3127948634418086</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>-0.158069663659287</v>
+        <v>-0.1423693244278569</v>
       </c>
       <c r="C66">
-        <v>-0.05011557622559543</v>
+        <v>0.1110664848131802</v>
       </c>
       <c r="D66">
-        <v>-0.01638894048601251</v>
+        <v>0.02007495897664582</v>
       </c>
       <c r="E66">
-        <v>-0.01769004462865214</v>
+        <v>0.1111485821185141</v>
       </c>
       <c r="F66">
-        <v>0.04047648362760586</v>
+        <v>-0.1379748546545118</v>
       </c>
       <c r="G66">
-        <v>0.3054824129260137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1292206096085803</v>
+      </c>
+      <c r="H66">
+        <v>0.07368356725208809</v>
+      </c>
+      <c r="I66">
+        <v>-0.02861550843951434</v>
+      </c>
+      <c r="J66">
+        <v>0.1814528798193447</v>
+      </c>
+      <c r="K66">
+        <v>-0.1697483248524073</v>
+      </c>
+      <c r="L66">
+        <v>-0.04370860962815078</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>-0.09980193436105024</v>
+        <v>-0.0717138190963221</v>
       </c>
       <c r="C67">
-        <v>-0.04085045262632343</v>
+        <v>0.0462173328956385</v>
       </c>
       <c r="D67">
-        <v>0.01634413500779621</v>
+        <v>0.008954245370052913</v>
       </c>
       <c r="E67">
-        <v>0.01240140363788628</v>
+        <v>-0.01843271256093674</v>
       </c>
       <c r="F67">
-        <v>0.004748537748629605</v>
+        <v>0.02417785720567095</v>
       </c>
       <c r="G67">
-        <v>0.0414676219499562</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.02114938282106669</v>
+      </c>
+      <c r="H67">
+        <v>-0.01750037805547454</v>
+      </c>
+      <c r="I67">
+        <v>0.04771219363059227</v>
+      </c>
+      <c r="J67">
+        <v>0.02843807317935648</v>
+      </c>
+      <c r="K67">
+        <v>-0.0279198128935559</v>
+      </c>
+      <c r="L67">
+        <v>-0.1430279051815583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>-0.04985724692199983</v>
+        <v>-0.1017379122211657</v>
       </c>
       <c r="C68">
-        <v>0.2907995702841358</v>
+        <v>-0.2771098711614696</v>
       </c>
       <c r="D68">
-        <v>0.0378579240441673</v>
+        <v>-0.01725435418834384</v>
       </c>
       <c r="E68">
-        <v>0.00826913466796002</v>
+        <v>0.02042393208168583</v>
       </c>
       <c r="F68">
-        <v>-0.008407286028309558</v>
+        <v>-0.04024315088345232</v>
       </c>
       <c r="G68">
-        <v>-0.02425591746640144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.01828183536609268</v>
+      </c>
+      <c r="H68">
+        <v>-0.0185579066576567</v>
+      </c>
+      <c r="I68">
+        <v>0.01222673523218414</v>
+      </c>
+      <c r="J68">
+        <v>-0.01926857088232686</v>
+      </c>
+      <c r="K68">
+        <v>-0.008167179740847087</v>
+      </c>
+      <c r="L68">
+        <v>0.04858329149113711</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>-0.04604330083940575</v>
+        <v>-0.03941628673390019</v>
       </c>
       <c r="C69">
-        <v>-0.01811058411432968</v>
+        <v>0.001965902457384568</v>
       </c>
       <c r="D69">
-        <v>0.009525509497233081</v>
+        <v>0.01008462599517009</v>
       </c>
       <c r="E69">
-        <v>-0.004269617535258593</v>
+        <v>-0.008582559500750797</v>
       </c>
       <c r="F69">
-        <v>0.02198574684958055</v>
+        <v>-0.007631804535505496</v>
       </c>
       <c r="G69">
-        <v>0.03168784120179478</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0369826151647191</v>
+      </c>
+      <c r="H69">
+        <v>-0.006623863137653907</v>
+      </c>
+      <c r="I69">
+        <v>0.01085161234477847</v>
+      </c>
+      <c r="J69">
+        <v>-0.02588219678979005</v>
+      </c>
+      <c r="K69">
+        <v>0.004926456032201367</v>
+      </c>
+      <c r="L69">
+        <v>0.009437210928748871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>-0.07600763598413099</v>
+        <v>-0.04934988025026832</v>
       </c>
       <c r="C70">
-        <v>-0.01018861056668856</v>
+        <v>0.01420582796436291</v>
       </c>
       <c r="D70">
-        <v>0.04242674401557699</v>
+        <v>0.0352253298102518</v>
       </c>
       <c r="E70">
-        <v>0.02813594740734015</v>
+        <v>0.02139297046699523</v>
       </c>
       <c r="F70">
-        <v>-0.08614659409168379</v>
+        <v>-0.02389647615716735</v>
       </c>
       <c r="G70">
-        <v>0.00995126796629078</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>-0.012348577195396</v>
+      </c>
+      <c r="H70">
+        <v>-0.02468120616397921</v>
+      </c>
+      <c r="I70">
+        <v>0.1434853839883874</v>
+      </c>
+      <c r="J70">
+        <v>-0.02692340896251168</v>
+      </c>
+      <c r="K70">
+        <v>0.2029466609387668</v>
+      </c>
+      <c r="L70">
+        <v>-0.04774090478203735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>-0.05773983853777655</v>
+        <v>-0.1167320963583795</v>
       </c>
       <c r="C71">
-        <v>0.2942075773238539</v>
+        <v>-0.2899594603228101</v>
       </c>
       <c r="D71">
-        <v>0.06029271646903579</v>
+        <v>0.0089041558594964</v>
       </c>
       <c r="E71">
-        <v>0.008880044931329314</v>
+        <v>0.003918307431538121</v>
       </c>
       <c r="F71">
-        <v>-0.009971953510884856</v>
+        <v>-0.05344339388194417</v>
       </c>
       <c r="G71">
-        <v>0.007910531750681743</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03992411319600402</v>
+      </c>
+      <c r="H71">
+        <v>0.01512301536422001</v>
+      </c>
+      <c r="I71">
+        <v>0.01565050959068873</v>
+      </c>
+      <c r="J71">
+        <v>0.001591745866569212</v>
+      </c>
+      <c r="K71">
+        <v>-0.02941896321345193</v>
+      </c>
+      <c r="L71">
+        <v>0.02136751096923656</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>-0.1531699864685303</v>
+        <v>-0.1484473025045848</v>
       </c>
       <c r="C72">
-        <v>0.03897008166848145</v>
+        <v>0.01095186990079944</v>
       </c>
       <c r="D72">
-        <v>-0.2335843926914309</v>
+        <v>-0.09374527377454894</v>
       </c>
       <c r="E72">
-        <v>0.03713269379837016</v>
+        <v>0.03646865307880662</v>
       </c>
       <c r="F72">
-        <v>0.03289804525488817</v>
+        <v>0.007231433244407308</v>
       </c>
       <c r="G72">
-        <v>0.06436681910962445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04106208804361769</v>
+      </c>
+      <c r="H72">
+        <v>0.04710949788479318</v>
+      </c>
+      <c r="I72">
+        <v>-0.02356831861616661</v>
+      </c>
+      <c r="J72">
+        <v>-0.1546874485071822</v>
+      </c>
+      <c r="K72">
+        <v>-0.06818417344904321</v>
+      </c>
+      <c r="L72">
+        <v>-0.04027457305072565</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>-0.2907495498323084</v>
+        <v>-0.2393998995887109</v>
       </c>
       <c r="C73">
-        <v>-0.1734864803481495</v>
+        <v>0.1166952178302267</v>
       </c>
       <c r="D73">
-        <v>0.05742630662148288</v>
+        <v>0.1601229027861465</v>
       </c>
       <c r="E73">
-        <v>0.1550167925673237</v>
+        <v>0.0756031956335525</v>
       </c>
       <c r="F73">
-        <v>-0.2933198687374531</v>
+        <v>0.4413014362413308</v>
       </c>
       <c r="G73">
-        <v>-0.2484127785635233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.09910009414939222</v>
+      </c>
+      <c r="H73">
+        <v>0.1564695424606985</v>
+      </c>
+      <c r="I73">
+        <v>0.1866370277150391</v>
+      </c>
+      <c r="J73">
+        <v>0.2586959750873378</v>
+      </c>
+      <c r="K73">
+        <v>-0.2408644464234183</v>
+      </c>
+      <c r="L73">
+        <v>0.01330729118681561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>-0.09761799998141829</v>
+        <v>-0.1139340944052868</v>
       </c>
       <c r="C74">
-        <v>-0.03666687240567362</v>
+        <v>0.06689558814124563</v>
       </c>
       <c r="D74">
-        <v>-0.001995889495267456</v>
+        <v>0.005763612863794476</v>
       </c>
       <c r="E74">
-        <v>0.01177880506149682</v>
+        <v>0.003950362411770173</v>
       </c>
       <c r="F74">
-        <v>0.09715682279480849</v>
+        <v>0.05814476846380531</v>
       </c>
       <c r="G74">
-        <v>-0.03640587922341014</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.1314296774097832</v>
+      </c>
+      <c r="H74">
+        <v>-0.004644026787963383</v>
+      </c>
+      <c r="I74">
+        <v>-0.09213482585996353</v>
+      </c>
+      <c r="J74">
+        <v>-0.06593719362667677</v>
+      </c>
+      <c r="K74">
+        <v>0.005811331115873022</v>
+      </c>
+      <c r="L74">
+        <v>0.01366382411612669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>-0.09490595984330669</v>
+        <v>-0.105348616992763</v>
       </c>
       <c r="C75">
-        <v>-0.01815696073330122</v>
+        <v>0.04760387659698005</v>
       </c>
       <c r="D75">
-        <v>-0.02161470870499753</v>
+        <v>-0.001052509680977346</v>
       </c>
       <c r="E75">
-        <v>0.03706727557526526</v>
+        <v>0.004392982793011957</v>
       </c>
       <c r="F75">
-        <v>0.1161353144615383</v>
+        <v>0.04550930158680588</v>
       </c>
       <c r="G75">
-        <v>-0.06653448334204502</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.05924693657379165</v>
+      </c>
+      <c r="H75">
+        <v>-0.04731107840825113</v>
+      </c>
+      <c r="I75">
+        <v>-0.1230352936369658</v>
+      </c>
+      <c r="J75">
+        <v>-0.06620636393957691</v>
+      </c>
+      <c r="K75">
+        <v>0.01229529131775686</v>
+      </c>
+      <c r="L75">
+        <v>0.01326595134830978</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>-0.1374405518372524</v>
+        <v>-0.0646730693754924</v>
       </c>
       <c r="C76">
-        <v>-0.03516140690966765</v>
+        <v>0.03263778105566897</v>
       </c>
       <c r="D76">
-        <v>0.006916761682285231</v>
+        <v>0.02500024543177106</v>
       </c>
       <c r="E76">
-        <v>-0.007500451735105831</v>
+        <v>-0.009410786101941663</v>
       </c>
       <c r="F76">
-        <v>0.2215581629723217</v>
+        <v>0.07846931826145984</v>
       </c>
       <c r="G76">
-        <v>-0.1155835733927955</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05400764137036536</v>
+      </c>
+      <c r="H76">
+        <v>-0.07671766337735225</v>
+      </c>
+      <c r="I76">
+        <v>-0.1265476547421629</v>
+      </c>
+      <c r="J76">
+        <v>-0.05110715713307868</v>
+      </c>
+      <c r="K76">
+        <v>-0.02201178688490421</v>
+      </c>
+      <c r="L76">
+        <v>-0.009572442586577141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>-0.08698862077752204</v>
+        <v>-0.0734115281274684</v>
       </c>
       <c r="C77">
-        <v>-0.001152534926560516</v>
+        <v>0.03154039077648962</v>
       </c>
       <c r="D77">
-        <v>0.04860365480878356</v>
+        <v>0.04157213188367889</v>
       </c>
       <c r="E77">
-        <v>-0.06810793390346717</v>
+        <v>0.004033654547108564</v>
       </c>
       <c r="F77">
-        <v>-0.1274659359557731</v>
+        <v>-0.2350407632193657</v>
       </c>
       <c r="G77">
-        <v>0.2337367182364099</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.05450929377776389</v>
+      </c>
+      <c r="H77">
+        <v>-0.00759037677114099</v>
+      </c>
+      <c r="I77">
+        <v>0.2270205094731259</v>
+      </c>
+      <c r="J77">
+        <v>-0.07592110642390593</v>
+      </c>
+      <c r="K77">
+        <v>-0.1275472124264722</v>
+      </c>
+      <c r="L77">
+        <v>-0.5883728846339714</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>-0.2051914427596893</v>
+        <v>-0.157338484336509</v>
       </c>
       <c r="C78">
-        <v>-0.06353070956223777</v>
+        <v>0.1027832374795626</v>
       </c>
       <c r="D78">
-        <v>0.06187621849953667</v>
+        <v>-0.06733645868083532</v>
       </c>
       <c r="E78">
-        <v>-0.184277508600054</v>
+        <v>-0.1898267869252885</v>
       </c>
       <c r="F78">
-        <v>0.006114340499535265</v>
+        <v>-0.1657988481593425</v>
       </c>
       <c r="G78">
-        <v>0.09828262634796607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.608982435171637</v>
+      </c>
+      <c r="H78">
+        <v>-0.5680378709097821</v>
+      </c>
+      <c r="I78">
+        <v>-0.2522359815396023</v>
+      </c>
+      <c r="J78">
+        <v>0.04734689503471325</v>
+      </c>
+      <c r="K78">
+        <v>-0.197658930244986</v>
+      </c>
+      <c r="L78">
+        <v>0.04607794374448052</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>-0.1371154480836397</v>
+        <v>-0.133634113825352</v>
       </c>
       <c r="C79">
-        <v>-0.01642219875361221</v>
+        <v>0.04758255454572136</v>
       </c>
       <c r="D79">
-        <v>-0.006313354901668858</v>
+        <v>0.01615937526278119</v>
       </c>
       <c r="E79">
-        <v>0.02257340878767114</v>
+        <v>-0.005764729729610602</v>
       </c>
       <c r="F79">
-        <v>0.1687227687970226</v>
+        <v>0.01650048512220145</v>
       </c>
       <c r="G79">
-        <v>0.005909816953219418</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.1087067060237334</v>
+      </c>
+      <c r="H79">
+        <v>-0.008480303302942097</v>
+      </c>
+      <c r="I79">
+        <v>-0.1331527184332152</v>
+      </c>
+      <c r="J79">
+        <v>-0.1156380741040711</v>
+      </c>
+      <c r="K79">
+        <v>-0.002868025330793316</v>
+      </c>
+      <c r="L79">
+        <v>-0.01052600736601483</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>-0.03573993239696534</v>
+        <v>-0.06505518961222267</v>
       </c>
       <c r="C80">
-        <v>-0.01278766584022068</v>
+        <v>0.04396608837581713</v>
       </c>
       <c r="D80">
-        <v>0.008201538030020255</v>
+        <v>0.03206850143605387</v>
       </c>
       <c r="E80">
-        <v>0.04573279379960607</v>
+        <v>0.05970596205619867</v>
       </c>
       <c r="F80">
-        <v>-0.02648844668105001</v>
+        <v>-0.02793332446807869</v>
       </c>
       <c r="G80">
-        <v>0.05209966393793303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02258938980198912</v>
+      </c>
+      <c r="H80">
+        <v>-0.09916898515267852</v>
+      </c>
+      <c r="I80">
+        <v>0.03136697879461064</v>
+      </c>
+      <c r="J80">
+        <v>0.05836526695153084</v>
+      </c>
+      <c r="K80">
+        <v>0.02714160138022484</v>
+      </c>
+      <c r="L80">
+        <v>0.1758740582212822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>-0.1101298837637924</v>
+        <v>-0.1308762264801639</v>
       </c>
       <c r="C81">
-        <v>-0.01633723078837843</v>
+        <v>0.05745373665981213</v>
       </c>
       <c r="D81">
-        <v>0.009678463660922501</v>
+        <v>0.02258119777223689</v>
       </c>
       <c r="E81">
-        <v>0.0213093583822213</v>
+        <v>-0.002730592737837632</v>
       </c>
       <c r="F81">
-        <v>0.139155137678704</v>
+        <v>0.002912465223079522</v>
       </c>
       <c r="G81">
-        <v>-0.04746818592699051</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.07887490059420975</v>
+      </c>
+      <c r="H81">
+        <v>0.00141023884482473</v>
+      </c>
+      <c r="I81">
+        <v>-0.1274067009546316</v>
+      </c>
+      <c r="J81">
+        <v>-0.06168470957891516</v>
+      </c>
+      <c r="K81">
+        <v>0.03320862955715739</v>
+      </c>
+      <c r="L81">
+        <v>-0.004044725718378325</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>-0.1116359144265597</v>
+        <v>-0.1390174410147888</v>
       </c>
       <c r="C82">
-        <v>-0.03055420769810432</v>
+        <v>0.05360709712175195</v>
       </c>
       <c r="D82">
-        <v>0.04979493366514853</v>
+        <v>0.04616315634138463</v>
       </c>
       <c r="E82">
-        <v>0.05258520691785568</v>
+        <v>0.009252117129899078</v>
       </c>
       <c r="F82">
-        <v>0.2438828864455169</v>
+        <v>0.04875028856781041</v>
       </c>
       <c r="G82">
-        <v>0.00496644394097424</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.1734320918737736</v>
+      </c>
+      <c r="H82">
+        <v>-0.03337578580435469</v>
+      </c>
+      <c r="I82">
+        <v>-0.225193609610312</v>
+      </c>
+      <c r="J82">
+        <v>-0.03645372384638172</v>
+      </c>
+      <c r="K82">
+        <v>0.07518636412393226</v>
+      </c>
+      <c r="L82">
+        <v>-0.0308420339923839</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>-0.1028131402159595</v>
+        <v>-0.09120240268389655</v>
       </c>
       <c r="C83">
-        <v>-0.0656846831824483</v>
+        <v>0.104048282309337</v>
       </c>
       <c r="D83">
-        <v>0.06059484104457202</v>
+        <v>0.016891197816842</v>
       </c>
       <c r="E83">
-        <v>0.0108681370496831</v>
+        <v>-0.003330189788708445</v>
       </c>
       <c r="F83">
-        <v>-0.0702026735251256</v>
+        <v>-0.06642542397768081</v>
       </c>
       <c r="G83">
-        <v>0.1069924560786949</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03039210820926115</v>
+      </c>
+      <c r="H83">
+        <v>-0.09288355009809397</v>
+      </c>
+      <c r="I83">
+        <v>0.129983172247979</v>
+      </c>
+      <c r="J83">
+        <v>-0.01571064625342905</v>
+      </c>
+      <c r="K83">
+        <v>0.05340898501168686</v>
+      </c>
+      <c r="L83">
+        <v>-0.01449482466878753</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>-0.05498352798211</v>
+        <v>-0.05429453182139414</v>
       </c>
       <c r="C84">
-        <v>-0.02721566175244931</v>
+        <v>-0.03226361233800905</v>
       </c>
       <c r="D84">
-        <v>-0.04401505966260619</v>
+        <v>0.008666435603203161</v>
       </c>
       <c r="E84">
-        <v>-0.03861788814934792</v>
+        <v>0.02077912142886712</v>
       </c>
       <c r="F84">
-        <v>0.02655706797995111</v>
+        <v>-0.009835926562533162</v>
       </c>
       <c r="G84">
-        <v>-0.0102720438647623</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.1714379852040656</v>
+      </c>
+      <c r="H84">
+        <v>0.09663552598435003</v>
+      </c>
+      <c r="I84">
+        <v>-0.1463040447043498</v>
+      </c>
+      <c r="J84">
+        <v>0.3129620749146761</v>
+      </c>
+      <c r="K84">
+        <v>0.09583299732336299</v>
+      </c>
+      <c r="L84">
+        <v>0.1396750281706672</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>-0.1003160074488452</v>
+        <v>-0.1165712532623492</v>
       </c>
       <c r="C85">
-        <v>-0.02782752968305656</v>
+        <v>0.04325115545164226</v>
       </c>
       <c r="D85">
-        <v>0.01963016451724113</v>
+        <v>0.04509844486173472</v>
       </c>
       <c r="E85">
-        <v>0.02188453707259061</v>
+        <v>-0.003494979813196832</v>
       </c>
       <c r="F85">
-        <v>0.1928923096874152</v>
+        <v>0.01884618547849883</v>
       </c>
       <c r="G85">
-        <v>-0.005899253479411333</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1135274033312125</v>
+      </c>
+      <c r="H85">
+        <v>-0.02228813664051955</v>
+      </c>
+      <c r="I85">
+        <v>-0.1449315885018798</v>
+      </c>
+      <c r="J85">
+        <v>-0.1046128253276079</v>
+      </c>
+      <c r="K85">
+        <v>-0.006188585190875001</v>
+      </c>
+      <c r="L85">
+        <v>-0.01152207790070175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>-0.06252390738785937</v>
+        <v>-0.08005347931663172</v>
       </c>
       <c r="C86">
-        <v>-0.02777550883819764</v>
+        <v>0.01962257243538502</v>
       </c>
       <c r="D86">
-        <v>0.04500233740088821</v>
+        <v>0.08557060875295627</v>
       </c>
       <c r="E86">
-        <v>-0.04794629507217033</v>
+        <v>-0.04306245269874515</v>
       </c>
       <c r="F86">
-        <v>-0.03917419776523297</v>
+        <v>-0.1089888243772485</v>
       </c>
       <c r="G86">
-        <v>0.132565335429338</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.4382010498225519</v>
+      </c>
+      <c r="H86">
+        <v>0.6057500209347327</v>
+      </c>
+      <c r="I86">
+        <v>-0.3061528562336748</v>
+      </c>
+      <c r="J86">
+        <v>-0.1373213084513693</v>
+      </c>
+      <c r="K86">
+        <v>0.2387628728600345</v>
+      </c>
+      <c r="L86">
+        <v>0.009274819669954769</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>-0.1022346717811777</v>
+        <v>-0.1123152323102081</v>
       </c>
       <c r="C87">
-        <v>-0.05528099041274263</v>
+        <v>0.09609751089427543</v>
       </c>
       <c r="D87">
-        <v>0.02146786700137701</v>
+        <v>0.03562625368863509</v>
       </c>
       <c r="E87">
-        <v>-0.04536644491608603</v>
+        <v>-0.04040703677207599</v>
       </c>
       <c r="F87">
-        <v>-0.01639748690606832</v>
+        <v>-0.1238196239908248</v>
       </c>
       <c r="G87">
-        <v>0.1040542322496005</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.04029078467945629</v>
+      </c>
+      <c r="H87">
+        <v>0.03293025919993483</v>
+      </c>
+      <c r="I87">
+        <v>0.1493371922910593</v>
+      </c>
+      <c r="J87">
+        <v>-0.05503172456523277</v>
+      </c>
+      <c r="K87">
+        <v>0.1040510165217847</v>
+      </c>
+      <c r="L87">
+        <v>-0.2695853800948962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>-0.06613050599112472</v>
+        <v>-0.05747064292613875</v>
       </c>
       <c r="C88">
-        <v>-0.03223210693525367</v>
+        <v>0.04845119264754913</v>
       </c>
       <c r="D88">
-        <v>0.02529095129358585</v>
+        <v>0.03133944624456179</v>
       </c>
       <c r="E88">
-        <v>-0.01418053582233373</v>
+        <v>0.02339936381376705</v>
       </c>
       <c r="F88">
-        <v>-0.003416334084819902</v>
+        <v>-0.03075506855123803</v>
       </c>
       <c r="G88">
-        <v>0.06519304545832996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04139854194001255</v>
+      </c>
+      <c r="H88">
+        <v>0.0007088147552805352</v>
+      </c>
+      <c r="I88">
+        <v>0.02346084471740975</v>
+      </c>
+      <c r="J88">
+        <v>0.02947146965642162</v>
+      </c>
+      <c r="K88">
+        <v>-0.02661872008108244</v>
+      </c>
+      <c r="L88">
+        <v>0.05603556152932841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>-0.1061222098576523</v>
+        <v>-0.1728263306450385</v>
       </c>
       <c r="C89">
-        <v>0.364548472990421</v>
+        <v>-0.375056314335653</v>
       </c>
       <c r="D89">
-        <v>0.1155176292329665</v>
+        <v>0.02890549420636701</v>
       </c>
       <c r="E89">
-        <v>-0.02116372760149711</v>
+        <v>-0.05256305444359458</v>
       </c>
       <c r="F89">
-        <v>-0.07333851116194125</v>
+        <v>-0.02569998929881022</v>
       </c>
       <c r="G89">
-        <v>0.02745715561025062</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.01214894563614811</v>
+      </c>
+      <c r="H89">
+        <v>-0.04157664260528649</v>
+      </c>
+      <c r="I89">
+        <v>0.05176463946186198</v>
+      </c>
+      <c r="J89">
+        <v>0.07207603405521958</v>
+      </c>
+      <c r="K89">
+        <v>0.03686975225085066</v>
+      </c>
+      <c r="L89">
+        <v>0.04037332899744196</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>-0.08690312489935617</v>
+        <v>-0.1355565048458265</v>
       </c>
       <c r="C90">
-        <v>0.2906465468077984</v>
+        <v>-0.27635158569041</v>
       </c>
       <c r="D90">
-        <v>0.05604992745756923</v>
+        <v>0.01650633581045157</v>
       </c>
       <c r="E90">
-        <v>-0.04840161939708795</v>
+        <v>0.005044439691112575</v>
       </c>
       <c r="F90">
-        <v>-0.03946883167327836</v>
+        <v>-0.05045340354444391</v>
       </c>
       <c r="G90">
-        <v>0.05762309140240966</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01511674243192518</v>
+      </c>
+      <c r="H90">
+        <v>0.0481440965484748</v>
+      </c>
+      <c r="I90">
+        <v>0.03479293304849324</v>
+      </c>
+      <c r="J90">
+        <v>0.03983138491485322</v>
+      </c>
+      <c r="K90">
+        <v>-0.03588170256257572</v>
+      </c>
+      <c r="L90">
+        <v>-0.002887363079762191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>-0.08498410070683796</v>
+        <v>-0.08144480545743833</v>
       </c>
       <c r="C91">
-        <v>-0.02636945725170319</v>
+        <v>0.03885689253770143</v>
       </c>
       <c r="D91">
-        <v>-0.0003747360229946196</v>
+        <v>0.02499232246104293</v>
       </c>
       <c r="E91">
-        <v>0.0211490907186416</v>
+        <v>-0.007326609141704783</v>
       </c>
       <c r="F91">
-        <v>0.07601493038520681</v>
+        <v>0.03340235132826611</v>
       </c>
       <c r="G91">
-        <v>-0.0632212375418343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.06030191070090081</v>
+      </c>
+      <c r="H91">
+        <v>-0.01247534896369664</v>
+      </c>
+      <c r="I91">
+        <v>-0.08831077689935445</v>
+      </c>
+      <c r="J91">
+        <v>-0.04953628260860747</v>
+      </c>
+      <c r="K91">
+        <v>0.008857527315925921</v>
+      </c>
+      <c r="L91">
+        <v>0.009094464165651975</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>-0.07863429521989623</v>
+        <v>-0.1460980874081966</v>
       </c>
       <c r="C92">
-        <v>0.3407945002967997</v>
+        <v>-0.3284401469585662</v>
       </c>
       <c r="D92">
-        <v>0.07277852697234513</v>
+        <v>0.006312440416511294</v>
       </c>
       <c r="E92">
-        <v>-0.01887582211442633</v>
+        <v>-0.03752092867668431</v>
       </c>
       <c r="F92">
-        <v>-0.03732874905600474</v>
+        <v>-0.06551526444749765</v>
       </c>
       <c r="G92">
-        <v>-0.0506125465281213</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.02379464865534616</v>
+      </c>
+      <c r="H92">
+        <v>-0.04884903719487279</v>
+      </c>
+      <c r="I92">
+        <v>-0.01121442765343156</v>
+      </c>
+      <c r="J92">
+        <v>0.03220882507318604</v>
+      </c>
+      <c r="K92">
+        <v>-0.00918440331764994</v>
+      </c>
+      <c r="L92">
+        <v>0.01857367873239226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>-0.09633233903596274</v>
+        <v>-0.1392792834239121</v>
       </c>
       <c r="C93">
-        <v>0.2927993012377657</v>
+        <v>-0.3109186561500946</v>
       </c>
       <c r="D93">
-        <v>0.05567854773035819</v>
+        <v>0.03012598552307676</v>
       </c>
       <c r="E93">
-        <v>-0.01096227440408867</v>
+        <v>0.03005126905156445</v>
       </c>
       <c r="F93">
-        <v>-0.02154474522040184</v>
+        <v>-0.02162384427461052</v>
       </c>
       <c r="G93">
-        <v>-0.01166449993555149</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.01301257891009265</v>
+      </c>
+      <c r="H93">
+        <v>0.04864791556044077</v>
+      </c>
+      <c r="I93">
+        <v>0.01241510332055523</v>
+      </c>
+      <c r="J93">
+        <v>-0.002495190170150059</v>
+      </c>
+      <c r="K93">
+        <v>0.02446201272332482</v>
+      </c>
+      <c r="L93">
+        <v>0.009118363982445829</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>-0.09533195086347447</v>
+        <v>-0.1212020653066207</v>
       </c>
       <c r="C94">
-        <v>-0.04844943508767207</v>
+        <v>0.05563012838997317</v>
       </c>
       <c r="D94">
-        <v>-0.01190590947119788</v>
+        <v>0.009679823797182789</v>
       </c>
       <c r="E94">
-        <v>0.003734496983427779</v>
+        <v>-0.0198098894198476</v>
       </c>
       <c r="F94">
-        <v>0.1354050616175917</v>
+        <v>0.06274773385304928</v>
       </c>
       <c r="G94">
-        <v>-0.05712638753331287</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.08628870187942617</v>
+      </c>
+      <c r="H94">
+        <v>-0.02318408584397049</v>
+      </c>
+      <c r="I94">
+        <v>-0.1261990904702503</v>
+      </c>
+      <c r="J94">
+        <v>-0.03514282376138934</v>
+      </c>
+      <c r="K94">
+        <v>-0.01896126723716371</v>
+      </c>
+      <c r="L94">
+        <v>0.0593707870077969</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>-0.132596026135856</v>
+        <v>-0.1254669603933444</v>
       </c>
       <c r="C95">
-        <v>-0.06694602842349673</v>
+        <v>0.06881882709033001</v>
       </c>
       <c r="D95">
-        <v>0.06239312812650397</v>
+        <v>0.04428076793941339</v>
       </c>
       <c r="E95">
-        <v>-0.0173450791089588</v>
+        <v>-0.02602890472596825</v>
       </c>
       <c r="F95">
-        <v>-0.04719134807423835</v>
+        <v>-0.07832333509481089</v>
       </c>
       <c r="G95">
-        <v>0.1066277050438819</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.1222117409478605</v>
+      </c>
+      <c r="H95">
+        <v>0.08071046784989429</v>
+      </c>
+      <c r="I95">
+        <v>0.1001114398867129</v>
+      </c>
+      <c r="J95">
+        <v>0.04490160844789778</v>
+      </c>
+      <c r="K95">
+        <v>0.2200364594005497</v>
+      </c>
+      <c r="L95">
+        <v>0.1014160110249564</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>0.005905240889712103</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.003734455744138384</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.0003297224426452109</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.002192382277475042</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.005725372271130932</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.02317953239669343</v>
+      </c>
+      <c r="H96">
+        <v>-0.01493864376032028</v>
+      </c>
+      <c r="I96">
+        <v>0.01042257456743844</v>
+      </c>
+      <c r="J96">
+        <v>-0.01104147530870369</v>
+      </c>
+      <c r="K96">
+        <v>-0.02304268001633703</v>
+      </c>
+      <c r="L96">
+        <v>-0.01665297207673644</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>-0.2110159282105357</v>
+        <v>-0.1904180638986572</v>
       </c>
       <c r="C97">
-        <v>0.1490899659569871</v>
+        <v>0.03872732283704826</v>
       </c>
       <c r="D97">
-        <v>-0.8987795037513013</v>
+        <v>-0.9198893414338527</v>
       </c>
       <c r="E97">
-        <v>0.009151391096811174</v>
+        <v>0.2309581798947503</v>
       </c>
       <c r="F97">
-        <v>-0.08312367517871203</v>
+        <v>0.05852812627910398</v>
       </c>
       <c r="G97">
-        <v>0.03654762702918977</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04531348422914189</v>
+      </c>
+      <c r="H97">
+        <v>0.1051753318119004</v>
+      </c>
+      <c r="I97">
+        <v>-0.0006076995346827098</v>
+      </c>
+      <c r="J97">
+        <v>0.0336560631690424</v>
+      </c>
+      <c r="K97">
+        <v>0.03897434419532915</v>
+      </c>
+      <c r="L97">
+        <v>-0.05338918087693374</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>-0.3062845357393755</v>
+        <v>-0.2645255357431632</v>
       </c>
       <c r="C98">
-        <v>-0.09056124602055579</v>
+        <v>0.08656633490630485</v>
       </c>
       <c r="D98">
-        <v>0.07797177900300424</v>
+        <v>0.05076117298346133</v>
       </c>
       <c r="E98">
-        <v>0.2176468723049996</v>
+        <v>-0.01144286881494134</v>
       </c>
       <c r="F98">
-        <v>-0.2096890955601866</v>
+        <v>0.3769723885339829</v>
       </c>
       <c r="G98">
-        <v>-0.2588320767329108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08152253203457384</v>
+      </c>
+      <c r="H98">
+        <v>-0.265990099270243</v>
+      </c>
+      <c r="I98">
+        <v>0.1927524087687956</v>
+      </c>
+      <c r="J98">
+        <v>0.1626741116995261</v>
+      </c>
+      <c r="K98">
+        <v>0.5376042523199394</v>
+      </c>
+      <c r="L98">
+        <v>-0.162770560749855</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>-0.0825744827923566</v>
+        <v>-0.0626164593941691</v>
       </c>
       <c r="C99">
-        <v>-0.03567840661646633</v>
+        <v>0.02780515360684777</v>
       </c>
       <c r="D99">
-        <v>0.005478840893624115</v>
+        <v>0.01018275693813721</v>
       </c>
       <c r="E99">
-        <v>0.01424089069566819</v>
+        <v>-0.008819468705566529</v>
       </c>
       <c r="F99">
-        <v>0.01745219110362579</v>
+        <v>0.01311815164713287</v>
       </c>
       <c r="G99">
-        <v>0.0113786612549459</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.006038780485273804</v>
+      </c>
+      <c r="H99">
+        <v>0.001319153113381571</v>
+      </c>
+      <c r="I99">
+        <v>-0.01684921335543641</v>
+      </c>
+      <c r="J99">
+        <v>-0.002546250224198195</v>
+      </c>
+      <c r="K99">
+        <v>-0.06085012226075717</v>
+      </c>
+      <c r="L99">
+        <v>-0.007968482339452011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.01952739551309065</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.02144185330428712</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.04106536061367014</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.0431412374917351</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.02878101756928089</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.1455187647328183</v>
+      </c>
+      <c r="H100">
+        <v>-0.1407394550478447</v>
+      </c>
+      <c r="I100">
+        <v>0.03708618608702531</v>
+      </c>
+      <c r="J100">
+        <v>0.1193777468172294</v>
+      </c>
+      <c r="K100">
+        <v>0.2106307841086125</v>
+      </c>
+      <c r="L100">
+        <v>0.06813834555380641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>-0.05385178405131021</v>
+        <v>-0.04205414591189814</v>
       </c>
       <c r="C101">
-        <v>-0.004098019162981247</v>
+        <v>0.02472757086819239</v>
       </c>
       <c r="D101">
-        <v>0.01906391729934499</v>
+        <v>0.02372425368011497</v>
       </c>
       <c r="E101">
-        <v>-0.03967756031696602</v>
+        <v>-0.004351914814004112</v>
       </c>
       <c r="F101">
-        <v>0.02936452110144714</v>
+        <v>-0.05669644087496858</v>
       </c>
       <c r="G101">
-        <v>0.02815679052529569</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.03383928130391403</v>
+      </c>
+      <c r="H101">
+        <v>-0.0006267788264216168</v>
+      </c>
+      <c r="I101">
+        <v>0.001466117397329845</v>
+      </c>
+      <c r="J101">
+        <v>-0.03114174090686456</v>
+      </c>
+      <c r="K101">
+        <v>0.05905512963106412</v>
+      </c>
+      <c r="L101">
+        <v>0.05630483834979777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4576,25 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4614,25 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4650,21 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
